--- a/syscalls/slimtoolkit_mysql.xlsx
+++ b/syscalls/slimtoolkit_mysql.xlsx
@@ -374,32 +374,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>process control</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>file access</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>message queues</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>system wide</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>message queues</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>process control</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>file descriptor</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Time related</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>file descriptor</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -416,28 +416,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>mprotect</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>stat</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>uname</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>mprotect</t>
+          <t>uname</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>setitimer</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>read</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -450,28 +450,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>brk</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>fstat</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sysinfo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>brk</t>
+          <t>sysinfo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>epoll_pwait</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>write</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -484,200 +484,200 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rt_sigaction</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>lstat</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>capget</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>rt_sigaction</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+          <t>capget</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rt_sigprocmask</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>lseek</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>capset</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>rt_sigprocmask</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
+          <t>capset</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>mmap</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
+          <t>rt_sigreturn</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>access</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>statfs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>rt_sigreturn</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+          <t>statfs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>munmap</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
+          <t>getpid</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>pipe</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>prctl</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>getpid</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+          <t>prctl</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>ioctl</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
+          <t>clone</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>getcwd</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>arch_prctl</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>clone</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+          <t>arch_prctl</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>dup2</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
+          <t>execve</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>chdir</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>futex</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>execve</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+          <t>futex</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>fcntl</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
+          <t>exit</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>unlink</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>newfstatat</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>exit</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
+          <t>newfstatat</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>dup3</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
+          <t>wait4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>fchown</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>getrandom</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>wait4</t>
+          <t>getrandom</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -688,16 +688,16 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
+          <t>kill</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>getdents64</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>kill</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -706,198 +706,198 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
+          <t>getuid</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>openat</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>getuid</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>getgid</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>getgid</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>setuid</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>setuid</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>setgid</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>setgid</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>geteuid</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>geteuid</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>getegid</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>getegid</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>getppid</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>getppid</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>getpgrp</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>getpgrp</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>setgroups</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>setgroups</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>rt_sigsuspend</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>rt_sigsuspend</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>set_tid_address</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>set_tid_address</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>exit_group</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>exit_group</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>set_robust_list</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>set_robust_list</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>prlimit64</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>prlimit64</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
